--- a/SU23/expdata/60001.xlsx
+++ b/SU23/expdata/60001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/lattice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77055D16-1CE0-B147-A178-7748B3CA19D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFAAB32-9798-974B-BFAB-9CB4A7526C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>value</t>
   </si>
@@ -63,9 +63,6 @@
     <t>err_u</t>
   </si>
   <si>
-    <t>mom1</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -73,6 +70,15 @@
   </si>
   <si>
     <t>sp</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>pol</t>
   </si>
 </sst>
 </file>
@@ -444,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -460,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -474,8 +480,14 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -495,10 +507,16 @@
         <v>1.6E-2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -509,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>-0.42599999999999999</v>
@@ -518,10 +536,16 @@
         <v>1.6E-2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -532,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>-4.2999999999999997E-2</v>
@@ -541,10 +565,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -553,7 +583,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -562,7 +592,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -571,7 +601,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -580,7 +610,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -589,7 +619,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -598,7 +628,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -607,7 +637,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -616,7 +646,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
